--- a/LF/PreTAS/Kenya/ke_lf_pretas_2_participant_202203.xlsx
+++ b/LF/PreTAS/Kenya/ke_lf_pretas_2_participant_202203.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="139">
   <si>
     <t>type</t>
   </si>
@@ -213,18 +213,15 @@
     <t>The year must be between 2017 and 1902</t>
   </si>
   <si>
+    <t>select_one month</t>
+  </si>
+  <si>
     <t>month</t>
   </si>
   <si>
     <t>Month of birth</t>
   </si>
   <si>
-    <t>. &gt; 0 and . &lt; 13</t>
-  </si>
-  <si>
-    <t>The month must be between 1 and 12</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -382,6 +379,42 @@
   </si>
   <si>
     <t>05</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
   </si>
   <si>
     <t>form_title</t>
@@ -1084,7 +1117,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1103,6 +1136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1452,11 +1486,11 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1477,46 +1511,46 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="18" spans="1:14">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="16" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1534,10 +1568,10 @@
         <v>17</v>
       </c>
       <c r="E2" s="6"/>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="13" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="6"/>
@@ -1604,7 +1638,7 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="13"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -1693,7 +1727,7 @@
       <c r="C9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="10"/>
       <c r="F9" s="3" t="s">
         <v>40</v>
       </c>
@@ -1711,13 +1745,13 @@
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="10"/>
       <c r="H10" s="3" t="s">
         <v>42</v>
       </c>
@@ -1735,13 +1769,13 @@
       <c r="A11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="10"/>
       <c r="H11" s="3" t="s">
         <v>49</v>
       </c>
@@ -1778,7 +1812,7 @@
       <c r="A13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1807,7 +1841,7 @@
       <c r="A14" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -1832,7 +1866,7 @@
       <c r="A15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -1857,22 +1891,18 @@
     </row>
     <row r="16" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
       <c r="A16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="10" t="s">
         <v>65</v>
       </c>
+      <c r="B16" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="C16" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>68</v>
-      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5" t="s">
@@ -1886,19 +1916,19 @@
       <c r="A17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -1911,9 +1941,9 @@
     </row>
     <row r="18" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
       <c r="A18" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="10"/>
+        <v>72</v>
+      </c>
+      <c r="B18" s="11"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1931,11 +1961,11 @@
       <c r="A20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1956,22 +1986,22 @@
       <c r="A21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="H21" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5" t="s">
@@ -1985,11 +2015,11 @@
       <c r="A22" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -2009,11 +2039,11 @@
       <c r="A23" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -2033,11 +2063,11 @@
       <c r="A24" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -2054,7 +2084,7 @@
       <c r="M24" s="5"/>
     </row>
     <row r="25" s="6" customFormat="1" ht="15.75" customHeight="1" spans="2:13">
-      <c r="B25" s="10"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -2067,48 +2097,48 @@
     </row>
     <row r="26" s="3" customFormat="1" ht="28.5" spans="1:10">
       <c r="A26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="D26" s="10"/>
+      <c r="H26" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="H26" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="J26" s="5"/>
     </row>
     <row r="27" s="3" customFormat="1" spans="1:4">
       <c r="A27" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="C27" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="9"/>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" s="3" customFormat="1" spans="1:4">
       <c r="A28" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" t="s">
         <v>96</v>
-      </c>
-      <c r="B29" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2121,12 +2151,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9:C13"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -2139,7 +2169,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2148,149 +2178,281 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
         <v>101</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" t="s">
         <v>102</v>
-      </c>
-      <c r="C2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s">
         <v>104</v>
-      </c>
-      <c r="C3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
         <v>106</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" t="s">
         <v>107</v>
-      </c>
-      <c r="C4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" t="s">
         <v>109</v>
-      </c>
-      <c r="C5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" t="s">
         <v>111</v>
       </c>
-      <c r="B6" t="s">
-        <v>112</v>
-      </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" t="s">
         <v>113</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>114</v>
-      </c>
-      <c r="D7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="1" spans="1:3">
       <c r="A9" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>117</v>
+      <c r="C9" s="17" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="1" spans="1:3">
       <c r="A10" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>118</v>
+        <v>115</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="1" spans="1:3">
       <c r="A11" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" spans="1:3">
       <c r="A12" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>120</v>
+        <v>115</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" spans="1:3">
       <c r="A13" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C15" s="8" t="s">
         <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2320,24 +2482,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/LF/PreTAS/Kenya/ke_lf_pretas_2_participant_202203.xlsx
+++ b/LF/PreTAS/Kenya/ke_lf_pretas_2_participant_202203.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="132">
   <si>
     <t>type</t>
   </si>
@@ -129,54 +129,51 @@
     <t>${p_consent} = 'Yes'</t>
   </si>
   <si>
+    <t>p_code_id</t>
+  </si>
+  <si>
+    <t>Please record the following unique ID code for the respondent on a separate list and on each diagnostic test(s) administered</t>
+  </si>
+  <si>
+    <t>${p_consent} = 'Yes' and ${p_IDMethod} != 'Scanner'</t>
+  </si>
+  <si>
+    <t>p_code_id2</t>
+  </si>
+  <si>
+    <t>Please repeat the unique ID</t>
+  </si>
+  <si>
+    <t>. = ${p_code_id}</t>
+  </si>
+  <si>
+    <t>The repeated code must be hte same</t>
+  </si>
+  <si>
+    <t>barcode</t>
+  </si>
+  <si>
+    <t>p_BarcodeID</t>
+  </si>
+  <si>
+    <t>Scan barcode now</t>
+  </si>
+  <si>
+    <t>${p_consent} = 'Yes' and ${p_IDMethod} = 'Scanner'</t>
+  </si>
+  <si>
+    <t>select_one sex_list</t>
+  </si>
+  <si>
+    <t>p_sex</t>
+  </si>
+  <si>
+    <t>Sex of respondent</t>
+  </si>
+  <si>
     <t>integer</t>
   </si>
   <si>
-    <t>p_id_sequence</t>
-  </si>
-  <si>
-    <t>Enter the sequence ID</t>
-  </si>
-  <si>
-    <t>. &gt; 0</t>
-  </si>
-  <si>
-    <t>The number must be greater than 0</t>
-  </si>
-  <si>
-    <t>${p_consent} = 'Yes' and ${p_IDMethod} != 'Scanner'</t>
-  </si>
-  <si>
-    <t>p_code_id</t>
-  </si>
-  <si>
-    <t>Please record the following unique ID code for the respondent on a separate list and on each diagnostic test(s) administered</t>
-  </si>
-  <si>
-    <t>concat(${p_enumerator}, '-', ${p_cluster_id}, '-', ${p_id_sequence})</t>
-  </si>
-  <si>
-    <t>barcode</t>
-  </si>
-  <si>
-    <t>p_BarcodeID</t>
-  </si>
-  <si>
-    <t>Scan barcode now</t>
-  </si>
-  <si>
-    <t>${p_consent} = 'Yes' and ${p_IDMethod} = 'Scanner'</t>
-  </si>
-  <si>
-    <t>select_one sex_list</t>
-  </si>
-  <si>
-    <t>p_sex</t>
-  </si>
-  <si>
-    <t>Sex of respondent</t>
-  </si>
-  <si>
     <t>p_age_yrs</t>
   </si>
   <si>
@@ -312,9 +309,6 @@
     <t>list_name</t>
   </si>
   <si>
-    <t>label::French</t>
-  </si>
-  <si>
     <t>eu_list</t>
   </si>
   <si>
@@ -324,30 +318,18 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Oui</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Non</t>
-  </si>
-  <si>
     <t>sex_list</t>
   </si>
   <si>
     <t>Male</t>
   </si>
   <si>
-    <t>Masculin</t>
-  </si>
-  <si>
     <t>Female</t>
   </si>
   <si>
-    <t>Féminin</t>
-  </si>
-  <si>
     <t>id_list</t>
   </si>
   <si>
@@ -357,10 +339,7 @@
     <t>ID_generation</t>
   </si>
   <si>
-    <t>Automatic ID generation</t>
-  </si>
-  <si>
-    <t>Génération automatique</t>
+    <t>Manual</t>
   </si>
   <si>
     <t>enumarator</t>
@@ -426,10 +405,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>2. Kenya - Pre TAS LF Participants Form</t>
-  </si>
-  <si>
-    <t>ke_lf_pretas_2_participant_202203</t>
+    <t>2. Kenya - Pre TAS LF Participants Form V2</t>
+  </si>
+  <si>
+    <t>ke_lf_pretas_2_participant_202203_v2</t>
   </si>
   <si>
     <t>English</t>
@@ -440,10 +419,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -496,6 +475,21 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -503,8 +497,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,8 +580,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,111 +611,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -654,25 +633,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,30 +795,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -721,108 +802,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,17 +853,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -917,21 +885,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -948,9 +901,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -969,151 +924,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1490,7 +1469,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16:G16"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1717,67 +1696,63 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:10">
+    <row r="9" s="3" customFormat="1" ht="42.75" spans="1:10">
       <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="10"/>
+      <c r="H9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="F9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="I9" s="3"/>
       <c r="J9" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" ht="42.75" spans="1:14">
+    <row r="10" s="3" customFormat="1" spans="1:10">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="F10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="10"/>
       <c r="H10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="I10" s="3"/>
       <c r="J10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="11" s="3" customFormat="1" spans="1:10">
       <c r="A11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="D11" s="10"/>
       <c r="H11" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>20</v>
@@ -1785,13 +1760,13 @@
     </row>
     <row r="12" s="3" customFormat="1" spans="1:13">
       <c r="A12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1810,21 +1785,21 @@
     </row>
     <row r="13" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
       <c r="A13" s="6" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>36</v>
@@ -1839,17 +1814,17 @@
     </row>
     <row r="14" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
       <c r="A14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="C14" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -1864,21 +1839,21 @@
     </row>
     <row r="15" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
       <c r="A15" s="6" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -1891,13 +1866,13 @@
     </row>
     <row r="16" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
       <c r="A16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="C16" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1914,21 +1889,21 @@
     </row>
     <row r="17" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
       <c r="A17" s="6" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -1941,7 +1916,7 @@
     </row>
     <row r="18" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
       <c r="A18" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="5"/>
@@ -1956,16 +1931,16 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
       <c r="A20" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1984,24 +1959,24 @@
     </row>
     <row r="21" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
       <c r="A21" s="6" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B21" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="H21" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5" t="s">
@@ -2016,10 +1991,10 @@
         <v>30</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -2040,10 +2015,10 @@
         <v>30</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -2061,13 +2036,13 @@
     </row>
     <row r="24" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
       <c r="A24" s="6" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B24" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -2097,48 +2072,48 @@
     </row>
     <row r="26" s="3" customFormat="1" ht="28.5" spans="1:10">
       <c r="A26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>88</v>
       </c>
       <c r="D26" s="10"/>
       <c r="H26" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J26" s="5"/>
     </row>
     <row r="27" s="3" customFormat="1" spans="1:4">
       <c r="A27" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>92</v>
       </c>
       <c r="D27" s="10"/>
     </row>
     <row r="28" s="3" customFormat="1" spans="1:4">
       <c r="A28" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" t="s">
         <v>95</v>
-      </c>
-      <c r="B29" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2151,25 +2126,24 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15:A26"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="16.3777777777778" customWidth="1"/>
     <col min="2" max="2" width="39.6222222222222" customWidth="1"/>
     <col min="3" max="3" width="23.7481481481481" customWidth="1"/>
-    <col min="4" max="4" width="11.7481481481481" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2177,282 +2151,261 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
         <v>100</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>103</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
         <v>103</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="5" t="s">
+      <c r="B6" t="s">
         <v>105</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s">
         <v>106</v>
       </c>
-      <c r="C4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C7" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="1" spans="1:3">
       <c r="A9" s="6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="1" spans="1:3">
       <c r="A10" s="6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="1" spans="1:3">
       <c r="A11" s="6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" spans="1:3">
       <c r="A12" s="6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" spans="1:3">
       <c r="A13" s="6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2470,7 +2423,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -2482,24 +2435,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/LF/PreTAS/Kenya/ke_lf_pretas_2_participant_202203.xlsx
+++ b/LF/PreTAS/Kenya/ke_lf_pretas_2_participant_202203.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="131">
   <si>
     <t>type</t>
   </si>
@@ -60,7 +60,7 @@
     <t>read_only</t>
   </si>
   <si>
-    <t>select_one enumarator</t>
+    <t>string</t>
   </si>
   <si>
     <t>p_enumerator</t>
@@ -69,21 +69,12 @@
     <t>Enumerator</t>
   </si>
   <si>
-    <t>Select your name/number</t>
-  </si>
-  <si>
-    <t>regex(.,'^[0-9]{2}$')</t>
-  </si>
-  <si>
-    <t>The code must be a two-digit number between 9 and 100</t>
+    <t>Write first and last name</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>p_county</t>
   </si>
   <si>
@@ -240,6 +231,18 @@
     <t>A1. Have you lived in this Sub-County for the last 1 year?</t>
   </si>
   <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>p_oth_recent_subcounties</t>
+  </si>
+  <si>
+    <t>A2. If no, which is the last recent other Sub-County you lived in?</t>
+  </si>
+  <si>
+    <t>${p_consent} = 'Yes' and ${p_lived_last_1yr} = 'No'</t>
+  </si>
+  <si>
     <t>p_length_reside</t>
   </si>
   <si>
@@ -252,9 +255,6 @@
     <t>The value must not be greater than the age</t>
   </si>
   <si>
-    <t>${p_consent} = 'Yes' and ${p_lived_last_1yr} = 'Yes'</t>
-  </si>
-  <si>
     <t>p_bednet</t>
   </si>
   <si>
@@ -285,9 +285,6 @@
     <t>${p_consent} = 'No'</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
     <t>p_notes</t>
   </si>
   <si>
@@ -405,10 +402,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>2. Kenya - Pre TAS LF Participants Form V2</t>
-  </si>
-  <si>
-    <t>ke_lf_pretas_2_participant_202203_v2</t>
+    <t>2. Kenya - Pre TAS LF Participants Form V3</t>
+  </si>
+  <si>
+    <t>ke_lf_pretas_2_participant_202203_v3</t>
   </si>
   <si>
     <t>English</t>
@@ -419,10 +416,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -474,6 +471,113 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -482,26 +586,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -514,75 +602,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,29 +614,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -633,55 +630,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,25 +780,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,85 +798,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,6 +844,21 @@
       </top>
       <bottom style="thin">
         <color theme="0" tint="-0.249946592608417"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -910,21 +922,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -951,148 +948,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1462,14 +1459,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1533,7 +1530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="28.5" spans="1:12">
+    <row r="2" s="3" customFormat="1" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1547,29 +1544,25 @@
         <v>17</v>
       </c>
       <c r="E2" s="6"/>
-      <c r="F2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>19</v>
-      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
@@ -1577,7 +1570,7 @@
       <c r="G3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -1585,13 +1578,13 @@
     </row>
     <row r="4" s="3" customFormat="1" spans="1:13">
       <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
@@ -1599,7 +1592,7 @@
       <c r="G4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -1607,13 +1600,13 @@
     </row>
     <row r="5" s="3" customFormat="1" spans="1:13">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
@@ -1622,7 +1615,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -1630,13 +1623,13 @@
     </row>
     <row r="6" s="3" customFormat="1" spans="1:13">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
@@ -1645,7 +1638,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
@@ -1653,13 +1646,13 @@
     </row>
     <row r="7" s="3" customFormat="1" spans="1:13">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1668,7 +1661,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -1676,108 +1669,106 @@
     </row>
     <row r="8" s="3" customFormat="1" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" ht="42.75" spans="1:10">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D9" s="10"/>
       <c r="H9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="3"/>
+        <v>36</v>
+      </c>
       <c r="J9" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D10" s="10"/>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="3"/>
+        <v>36</v>
+      </c>
       <c r="J10" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" spans="1:10">
       <c r="A11" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D11" s="10"/>
       <c r="H11" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" spans="1:13">
       <c r="A12" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -1785,28 +1776,28 @@
     </row>
     <row r="13" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
       <c r="A13" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -1814,22 +1805,22 @@
     </row>
     <row r="14" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
       <c r="A14" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -1839,26 +1830,26 @@
     </row>
     <row r="15" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
       <c r="A15" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -1866,13 +1857,13 @@
     </row>
     <row r="16" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
       <c r="A16" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1881,7 +1872,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -1889,26 +1880,26 @@
     </row>
     <row r="17" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
       <c r="A17" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -1916,7 +1907,7 @@
     </row>
     <row r="18" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
       <c r="A18" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="5"/>
@@ -1934,24 +1925,24 @@
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
       <c r="A20" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -1959,28 +1950,24 @@
     </row>
     <row r="21" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
       <c r="A21" s="6" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>77</v>
-      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
       <c r="H21" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
@@ -1988,23 +1975,28 @@
     </row>
     <row r="22" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
       <c r="A22" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5" t="s">
-        <v>36</v>
+      <c r="F22" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -2012,23 +2004,23 @@
     </row>
     <row r="23" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
       <c r="A23" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
@@ -2036,84 +2028,108 @@
     </row>
     <row r="24" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
       <c r="A24" s="6" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" s="6" customFormat="1" ht="15.75" customHeight="1" spans="2:13">
-      <c r="B25" s="11"/>
-      <c r="C25" s="5"/>
+    <row r="25" s="6" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
+      <c r="A25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="G25" s="5"/>
+      <c r="H25" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
+      <c r="J25" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
-    <row r="26" s="3" customFormat="1" ht="28.5" spans="1:10">
-      <c r="A26" s="3" t="s">
+    <row r="26" s="6" customFormat="1" ht="15.75" customHeight="1" spans="2:13">
+      <c r="B26" s="11"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" s="3" customFormat="1" ht="28.5" spans="1:10">
+      <c r="A27" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B27" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="H26" s="3" t="s">
+      <c r="D27" s="10"/>
+      <c r="H27" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" s="3" customFormat="1" spans="1:4">
-      <c r="A27" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D27" s="10"/>
+      <c r="J27" s="5"/>
     </row>
     <row r="28" s="3" customFormat="1" spans="1:4">
       <c r="A28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" s="3" customFormat="1" spans="1:4">
+      <c r="A29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="3" t="s">
+      <c r="B30" t="s">
         <v>94</v>
-      </c>
-      <c r="B29" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2143,7 +2159,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2152,260 +2168,260 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
         <v>98</v>
       </c>
-      <c r="B2" t="s">
-        <v>99</v>
-      </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
         <v>101</v>
       </c>
-      <c r="B4" t="s">
-        <v>102</v>
-      </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" t="s">
         <v>104</v>
       </c>
-      <c r="B6" t="s">
-        <v>105</v>
-      </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
         <v>106</v>
-      </c>
-      <c r="C7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="1" spans="1:3">
       <c r="A9" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>109</v>
-      </c>
       <c r="C9" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="1" spans="1:3">
       <c r="A10" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="1" spans="1:3">
       <c r="A11" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" spans="1:3">
       <c r="A12" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" spans="1:3">
       <c r="A13" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2423,7 +2439,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -2435,24 +2451,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" t="s">
         <v>129</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>130</v>
-      </c>
-      <c r="C2" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/LF/PreTAS/Kenya/ke_lf_pretas_2_participant_202203.xlsx
+++ b/LF/PreTAS/Kenya/ke_lf_pretas_2_participant_202203.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12240" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12390" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -402,10 +402,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>2. Kenya - Pre TAS LF Participants Form V3</t>
-  </si>
-  <si>
-    <t>ke_lf_pretas_2_participant_202203_v3</t>
+    <t>2. Kenya - Pre TAS LF Participants Form V4</t>
+  </si>
+  <si>
+    <t>ke_lf_pretas_2_participant_202203_v4</t>
   </si>
   <si>
     <t>English</t>
@@ -416,10 +416,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -471,8 +471,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,8 +487,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,6 +525,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -516,17 +547,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,81 +614,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -624,13 +624,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,7 +690,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,157 +804,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,6 +897,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -922,21 +937,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -948,148 +948,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1461,7 +1461,7 @@
   <sheetPr/>
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2438,8 +2438,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
